--- a/kindle_data.xlsx
+++ b/kindle_data.xlsx
@@ -1,33 +1,837 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saifia\Documents\GitHub\amazon_scraper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arts &amp; Photography" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Arts &amp; Photography" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="265">
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Web-Link</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Ratings</t>
+  </si>
+  <si>
+    <t>Stars</t>
+  </si>
+  <si>
+    <t>Page numbers source ISBN</t>
+  </si>
+  <si>
+    <t>ASIN</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Publication date</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>File size</t>
+  </si>
+  <si>
+    <t>Text-to-Speech</t>
+  </si>
+  <si>
+    <t>Screen Reader</t>
+  </si>
+  <si>
+    <t>Enhanced typesetting</t>
+  </si>
+  <si>
+    <t>X-Ray</t>
+  </si>
+  <si>
+    <t>Word Wise</t>
+  </si>
+  <si>
+    <t>Print length</t>
+  </si>
+  <si>
+    <t>Best Sellers Rank</t>
+  </si>
+  <si>
+    <t>Mozart: The Reign of Love</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Mozart-Reign-Love-Jan-Swafford-ebook/dp/B08425FRNN/ref=zg_bs_154607011_1/132-4750934-4652030?_encoding=UTF8&amp;psc=1&amp;refRID=Z3EY9NM7FEEBT5VTEHF3</t>
+  </si>
+  <si>
+    <t>Jan Swafford</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>B08425FRNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harper </t>
+  </si>
+  <si>
+    <t>December 8, 2020</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>32165 KB</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>827 pages</t>
+  </si>
+  <si>
+    <t>#657 in Kindle Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Classical Music (Books)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Arts &amp; Photography (Kindle Store)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Historical Germany Biographies</t>
+  </si>
+  <si>
+    <t>Color: A Natural History of the Palette</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Color-Natural-History-Victoria-Finlay-ebook/dp/B000XUBDIA/ref=zg_bs_154607011_2/132-4750934-4652030?_encoding=UTF8&amp;psc=1&amp;refRID=Z3EY9NM7FEEBT5VTEHF3</t>
+  </si>
+  <si>
+    <t>Victoria Finlay</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>B000XUBDIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random House </t>
+  </si>
+  <si>
+    <t>December 18, 2007</t>
+  </si>
+  <si>
+    <t>2176 KB</t>
+  </si>
+  <si>
+    <t>Not Enabled</t>
+  </si>
+  <si>
+    <t>468 pages</t>
+  </si>
+  <si>
+    <t>#659 in Kindle Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Art History Schools, Periods &amp; Styles eBooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in History of Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Afghanistan Travel Guides</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Cursed Child - Parts One and Two: The Official Playscript of the Original West End Production</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Harry-Potter-Cursed-Child-Playscript-ebook/dp/B073P962D9/ref=zg_bs_154607011_3/132-4750934-4652030?_encoding=UTF8&amp;psc=1&amp;refRID=Z3EY9NM7FEEBT5VTEHF3</t>
+  </si>
+  <si>
+    <t>J.K. Rowling</t>
+  </si>
+  <si>
+    <t>33,588</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>B073P962D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pottermore Publishing </t>
+  </si>
+  <si>
+    <t>July 25, 2017</t>
+  </si>
+  <si>
+    <t>16584 KB</t>
+  </si>
+  <si>
+    <t>336 pages</t>
+  </si>
+  <si>
+    <t>#1,867 in Kindle Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Dramas &amp; Plays by Women</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Playwriting (Books)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Drama &amp; Play Anthologies (Kindle Store)</t>
+  </si>
+  <si>
+    <t>Paperback Crush: The Totally Radical History of '80s and '90s Teen Fiction</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Paperback-Crush-Totally-Radical-History-ebook/dp/B079KSPZKJ/ref=zg_bs_154607011_4/132-4750934-4652030?_encoding=UTF8&amp;psc=1&amp;refRID=Z3EY9NM7FEEBT5VTEHF3</t>
+  </si>
+  <si>
+    <t>Gabrielle Moss</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>1683690788</t>
+  </si>
+  <si>
+    <t>B079KSPZKJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quirk Books </t>
+  </si>
+  <si>
+    <t>October 30, 2018</t>
+  </si>
+  <si>
+    <t>249094 KB</t>
+  </si>
+  <si>
+    <t>257 pages</t>
+  </si>
+  <si>
+    <t>#1,956 in Kindle Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Women's Literature Criticism (Books)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Graphic Design of Books</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Women's Literature Criticism (Kindle Store)</t>
+  </si>
+  <si>
+    <t>The Night Portrait: A Novel of World War II and da Vinci's Italy</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Night-Portrait-Novel-World-Vincis-ebook/dp/B08292YZ6Z/ref=zg_bs_154607011_5/132-4750934-4652030?_encoding=UTF8&amp;psc=1&amp;refRID=Z3EY9NM7FEEBT5VTEHF3</t>
+  </si>
+  <si>
+    <t>Laura Morelli</t>
+  </si>
+  <si>
+    <t>1,529</t>
+  </si>
+  <si>
+    <t>B08292YZ6Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William Morrow Paperbacks; Illustrated edition </t>
+  </si>
+  <si>
+    <t>September 8, 2020</t>
+  </si>
+  <si>
+    <t>3310 KB</t>
+  </si>
+  <si>
+    <t>Supported</t>
+  </si>
+  <si>
+    <t>460 pages</t>
+  </si>
+  <si>
+    <t>#3,161 in Kindle Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Renaissance Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #3 in Renaissance Historical Fiction (Books)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #5 in Historical Italian Fiction</t>
+  </si>
+  <si>
+    <t>Brat: An '80s Story</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Brat-80s-Story-Andrew-McCarthy-ebook/dp/B08HLNHZJP/ref=zg_bs_154607011_6/132-4750934-4652030?_encoding=UTF8&amp;psc=1&amp;refRID=Z3EY9NM7FEEBT5VTEHF3</t>
+  </si>
+  <si>
+    <t>Andrew McCarthy</t>
+  </si>
+  <si>
+    <t>783</t>
+  </si>
+  <si>
+    <t>1538754274</t>
+  </si>
+  <si>
+    <t>B08HLNHZJP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Central Publishing </t>
+  </si>
+  <si>
+    <t>May 11, 2021</t>
+  </si>
+  <si>
+    <t>58620 KB</t>
+  </si>
+  <si>
+    <t>241 pages</t>
+  </si>
+  <si>
+    <t>#3,777 in Kindle Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Biographies of Actors &amp; Actresses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Theater Acting &amp; Auditioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #2 in Acting &amp; Auditioning</t>
+  </si>
+  <si>
+    <t>Perfect Song (Mason Creek Book 2)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Perfect-Song-Mason-Creek-Book-ebook/dp/B08XYDR3T1/ref=zg_bs_154607011_7/132-4750934-4652030?_encoding=UTF8&amp;psc=1&amp;refRID=Z3EY9NM7FEEBT5VTEHF3</t>
+  </si>
+  <si>
+    <t>Lauren Runow</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>B08XYDR3T1</t>
+  </si>
+  <si>
+    <t>April 22, 2021</t>
+  </si>
+  <si>
+    <t>3773 KB</t>
+  </si>
+  <si>
+    <t>#3,886 in Kindle Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Popular Music (Kindle Store)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Country Music (Kindle Store)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Pop Culture Music</t>
+  </si>
+  <si>
+    <t>Mozart in the Jungle: Sex, Drugs, and Classical Music</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Mozart-Jungle-Drugs-Classical-Music-ebook/dp/B008V43R34/ref=zg_bs_154607011_8/132-4750934-4652030?_encoding=UTF8&amp;psc=1&amp;refRID=Z3EY9NM7FEEBT5VTEHF3</t>
+  </si>
+  <si>
+    <t>Blair Tindall</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>B008V43R34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grove Press; Reprint edition </t>
+  </si>
+  <si>
+    <t>December 1, 2007</t>
+  </si>
+  <si>
+    <t>1331 KB</t>
+  </si>
+  <si>
+    <t>348 pages</t>
+  </si>
+  <si>
+    <t>#4,181 in Kindle Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Music History &amp; Criticism (Kindle Store)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #2 in Classical Music (Books)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #2 in Classical Music (Kindle Store)</t>
+  </si>
+  <si>
+    <t>Cake A Love Story: A Cake Series Novel</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cake-Love-Story-J-Bengtsson-ebook/dp/B01FPJ0DFC/ref=zg_bs_154607011_9/132-4750934-4652030?_encoding=UTF8&amp;psc=1&amp;refRID=Z3EY9NM7FEEBT5VTEHF3</t>
+  </si>
+  <si>
+    <t>J. Bengtsson</t>
+  </si>
+  <si>
+    <t>2,286</t>
+  </si>
+  <si>
+    <t>B01FPJ0DFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. Bengtsson Books </t>
+  </si>
+  <si>
+    <t>May 14, 2016</t>
+  </si>
+  <si>
+    <t>3559 KB</t>
+  </si>
+  <si>
+    <t>611 pages</t>
+  </si>
+  <si>
+    <t>#5,640 in Kindle Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Heavy Metal Music (Kindle Store)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Rock Music (Kindle Store)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #16 in Literary Satire Fiction</t>
+  </si>
+  <si>
+    <t>The Heart to Start: Stop Procrastinating &amp; Start Creating (Getting Art Done Book 1)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Heart-Start-Inner-Your-Shine-ebook/dp/B077XRMBR9/ref=zg_bs_154607011_10/132-4750934-4652030?_encoding=UTF8&amp;psc=1&amp;refRID=Z3EY9NM7FEEBT5VTEHF3</t>
+  </si>
+  <si>
+    <t>David Kadavy</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>B077XRMBR9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadavy, Inc. </t>
+  </si>
+  <si>
+    <t>December 3, 2017</t>
+  </si>
+  <si>
+    <t>943 KB</t>
+  </si>
+  <si>
+    <t>140 pages</t>
+  </si>
+  <si>
+    <t>#6,342 in Kindle Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Business of Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Vocational Guidance (Kindle Store)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Crafts &amp; Hobbies (Kindle Store)</t>
+  </si>
+  <si>
+    <t>Castles: Fortresses of Power (Casemate Short History)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Castles-Fortresses-Power-Casemate-History-ebook/dp/B07GCHX15N/ref=zg_bs_157630011_1/132-4598776-4835202?_encoding=UTF8&amp;psc=1&amp;refRID=F6RS3G4RZ6C1CSV3S73F</t>
+  </si>
+  <si>
+    <t>Rosie Serdiville</t>
+  </si>
+  <si>
+    <t>1 rating</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>B07GCHX15N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casemate </t>
+  </si>
+  <si>
+    <t>August 19, 2018</t>
+  </si>
+  <si>
+    <t>3582 KB</t>
+  </si>
+  <si>
+    <t>158 pages</t>
+  </si>
+  <si>
+    <t>#12,286 in Kindle Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Architecture History &amp; Periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Medieval Military History</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in 1066-1485 History of UK</t>
+  </si>
+  <si>
+    <t>The Guardian of Mercy: How an Extraordinary Painting by Caravaggio Changed an Ordinary Life Today</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Guardian-Mercy-Extraordinary-Painting-Caravaggio-ebook/dp/B017WS32GG/ref=zg_bs_157630011_2/132-4598776-4835202?_encoding=UTF8&amp;psc=1&amp;refRID=F6RS3G4RZ6C1CSV3S73F</t>
+  </si>
+  <si>
+    <t>Terence Ward</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>B017WS32GG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arcade; 1st edition </t>
+  </si>
+  <si>
+    <t>February 9, 2016</t>
+  </si>
+  <si>
+    <t>5052 KB</t>
+  </si>
+  <si>
+    <t>218 pages</t>
+  </si>
+  <si>
+    <t>#16,175 in Kindle Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #2 in Individual Artists (Kindle Store)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #2 in Architecture History &amp; Periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #2 in Renaissance Art</t>
+  </si>
+  <si>
+    <t>Look at That!: Discover the Joy of Seeing by Sketching</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Look-That-Discover-Seeing-Sketching-ebook/dp/B08NCNQSLQ/ref=zg_bs_157630011_5/132-4598776-4835202?_encoding=UTF8&amp;psc=1&amp;refRID=F6RS3G4RZ6C1CSV3S73F</t>
+  </si>
+  <si>
+    <t>Bobbie Herron</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>1735873004</t>
+  </si>
+  <si>
+    <t>B08NCNQSLQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FreedomWeavers Studio Press </t>
+  </si>
+  <si>
+    <t>November 11, 2020</t>
+  </si>
+  <si>
+    <t>11271 KB</t>
+  </si>
+  <si>
+    <t>75 pages</t>
+  </si>
+  <si>
+    <t>#20,522 in Kindle Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Art Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Landscapes &amp; Seascapes Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Mixed Media (Kindle Store)</t>
+  </si>
+  <si>
+    <t>Patina Farm</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Patina-Farm-Brooke-Giannetti-ebook/dp/B01HJ60ZLG/ref=zg_bs_157630011_6/132-4598776-4835202?_encoding=UTF8&amp;psc=1&amp;refRID=F6RS3G4RZ6C1CSV3S73F</t>
+  </si>
+  <si>
+    <t>Steve Giannetti</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>B01HJ60ZLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gibbs Smith; Illustrated edition </t>
+  </si>
+  <si>
+    <t>June 24, 2016</t>
+  </si>
+  <si>
+    <t>80436 KB</t>
+  </si>
+  <si>
+    <t>215 pages</t>
+  </si>
+  <si>
+    <t>#21,377 in Kindle Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Recreational Area Gardening</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #2 in Interior Architectural Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #3 in Arts &amp; Photography (Kindle Store)</t>
+  </si>
+  <si>
+    <t>PMP Exam Prep - PMP PMBOK Crash Course Study Guide : Ultimate Exam Master Prep To Pass The Exam!</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/PMP-Exam-Prep-Course-Ultimate-ebook/dp/B08N6SLCQW/ref=zg_bs_157630011_7/132-4598776-4835202?_encoding=UTF8&amp;psc=1&amp;refRID=F6RS3G4RZ6C1CSV3S73F</t>
+  </si>
+  <si>
+    <t>Ralph Cybulski</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>B08N6SLCQW</t>
+  </si>
+  <si>
+    <t>November 10, 2020</t>
+  </si>
+  <si>
+    <t>1943 KB</t>
+  </si>
+  <si>
+    <t>363 pages</t>
+  </si>
+  <si>
+    <t>#24,841 in Kindle Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Architecture Study &amp; Teaching (Kindle Store)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #3 in Study Guides (Kindle Store)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #3 in Career Test Preparation</t>
+  </si>
+  <si>
+    <t>Little Home, Big Dreams: The Tiny Home Lifestyle for Beginners</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Little-Home-Big-Dreams-Lifestyle-ebook/dp/B0969C36WB/ref=zg_bs_157630011_8/132-4598776-4835202?_encoding=UTF8&amp;psc=1&amp;refRID=F6RS3G4RZ6C1CSV3S73F</t>
+  </si>
+  <si>
+    <t>Kristine Hudson</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>B0969C36WB</t>
+  </si>
+  <si>
+    <t>May 31, 2021</t>
+  </si>
+  <si>
+    <t>4530 KB</t>
+  </si>
+  <si>
+    <t>120 pages</t>
+  </si>
+  <si>
+    <t>#32,316 in Kindle Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Home Design House Plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Architecture Project Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #2 in Home Carpentry</t>
+  </si>
+  <si>
+    <t>A Song for Bellafortuna: An Italian Historical Fiction Novel (Bellafortuna Series Book 1)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Song-Bellafortuna-Italian-Historical-Fiction-ebook/dp/B00U8ZYF2Q/ref=zg_bs_157630011_9/132-4598776-4835202?_encoding=UTF8&amp;psc=1&amp;refRID=F6RS3G4RZ6C1CSV3S73F</t>
+  </si>
+  <si>
+    <t>Vincent B. "Chip" LoCoco</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>B00U8ZYF2Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cefalutana Press </t>
+  </si>
+  <si>
+    <t>May 14, 2015</t>
+  </si>
+  <si>
+    <t>5140 KB</t>
+  </si>
+  <si>
+    <t>322 pages</t>
+  </si>
+  <si>
+    <t>#32,393 in Kindle Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Opera Music (Kindle Store)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in European Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #3 in Italian Literature (Kindle Store)</t>
+  </si>
+  <si>
+    <t>She Made Herself a Home: A Practical Guide to Design, Organize, and Give Purpose to Your Space</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/She-Made-Herself-Home-Practical-ebook/dp/B07XL6WC9Z/ref=zg_bs_157630011_10/132-4598776-4835202?_encoding=UTF8&amp;psc=1&amp;refRID=F6RS3G4RZ6C1CSV3S73F</t>
+  </si>
+  <si>
+    <t>Rachel Van Kluyve</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>B07XL6WC9Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Nelson; Illustrated edition </t>
+  </si>
+  <si>
+    <t>March 17, 2020</t>
+  </si>
+  <si>
+    <t>30502 KB</t>
+  </si>
+  <si>
+    <t>224 pages</t>
+  </si>
+  <si>
+    <t>#33,708 in Kindle Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 in Home Decorating (Kindle Store)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #3 in Interior Architectural Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #6 in Decorating &amp; Furnishings</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +850,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,134 +1152,1243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:W1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>subcat-1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>subcat-2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>subcat-3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>subcat-4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Web-Link</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Author</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Ratings</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Stars</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Page numbers source ISBN</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Text-to-Speech</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Screen Reader</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Enhanced typesetting</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>X-Ray</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Word Wise</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Print length</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Best Sellers Rank</t>
-        </is>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T6" t="s">
+        <v>90</v>
+      </c>
+      <c r="U6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" t="s">
+        <v>102</v>
+      </c>
+      <c r="S7" t="s">
+        <v>103</v>
+      </c>
+      <c r="T7" t="s">
+        <v>104</v>
+      </c>
+      <c r="U7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" t="s">
+        <v>114</v>
+      </c>
+      <c r="S8" t="s">
+        <v>115</v>
+      </c>
+      <c r="T8" t="s">
+        <v>116</v>
+      </c>
+      <c r="U8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>127</v>
+      </c>
+      <c r="R9" t="s">
+        <v>128</v>
+      </c>
+      <c r="S9" t="s">
+        <v>129</v>
+      </c>
+      <c r="T9" t="s">
+        <v>130</v>
+      </c>
+      <c r="U9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>140</v>
+      </c>
+      <c r="R10" t="s">
+        <v>141</v>
+      </c>
+      <c r="S10" t="s">
+        <v>142</v>
+      </c>
+      <c r="T10" t="s">
+        <v>143</v>
+      </c>
+      <c r="U10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>152</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>153</v>
+      </c>
+      <c r="R11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S11" t="s">
+        <v>155</v>
+      </c>
+      <c r="T11" t="s">
+        <v>156</v>
+      </c>
+      <c r="U11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>167</v>
+      </c>
+      <c r="R12" t="s">
+        <v>168</v>
+      </c>
+      <c r="S12" t="s">
+        <v>169</v>
+      </c>
+      <c r="T12" t="s">
+        <v>170</v>
+      </c>
+      <c r="U12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" t="s">
+        <v>177</v>
+      </c>
+      <c r="I13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>180</v>
+      </c>
+      <c r="R13" t="s">
+        <v>181</v>
+      </c>
+      <c r="S13" t="s">
+        <v>182</v>
+      </c>
+      <c r="T13" t="s">
+        <v>183</v>
+      </c>
+      <c r="U13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" t="s">
+        <v>192</v>
+      </c>
+      <c r="I14" t="s">
+        <v>193</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>194</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>195</v>
+      </c>
+      <c r="R14" t="s">
+        <v>196</v>
+      </c>
+      <c r="S14" t="s">
+        <v>197</v>
+      </c>
+      <c r="T14" t="s">
+        <v>198</v>
+      </c>
+      <c r="U14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" t="s">
+        <v>206</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>207</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>208</v>
+      </c>
+      <c r="R15" t="s">
+        <v>209</v>
+      </c>
+      <c r="S15" t="s">
+        <v>210</v>
+      </c>
+      <c r="T15" t="s">
+        <v>211</v>
+      </c>
+      <c r="U15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>219</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" t="s">
+        <v>86</v>
+      </c>
+      <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>221</v>
+      </c>
+      <c r="R16" t="s">
+        <v>222</v>
+      </c>
+      <c r="S16" t="s">
+        <v>223</v>
+      </c>
+      <c r="T16" t="s">
+        <v>224</v>
+      </c>
+      <c r="U16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>231</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>232</v>
+      </c>
+      <c r="L17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>233</v>
+      </c>
+      <c r="R17" t="s">
+        <v>234</v>
+      </c>
+      <c r="S17" t="s">
+        <v>235</v>
+      </c>
+      <c r="T17" t="s">
+        <v>236</v>
+      </c>
+      <c r="U17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>243</v>
+      </c>
+      <c r="H18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I18" t="s">
+        <v>245</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>246</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>247</v>
+      </c>
+      <c r="R18" t="s">
+        <v>248</v>
+      </c>
+      <c r="S18" t="s">
+        <v>249</v>
+      </c>
+      <c r="T18" t="s">
+        <v>250</v>
+      </c>
+      <c r="U18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" t="s">
+        <v>255</v>
+      </c>
+      <c r="E19" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>256</v>
+      </c>
+      <c r="H19" t="s">
+        <v>257</v>
+      </c>
+      <c r="I19" t="s">
+        <v>258</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>259</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>260</v>
+      </c>
+      <c r="R19" t="s">
+        <v>261</v>
+      </c>
+      <c r="S19" t="s">
+        <v>262</v>
+      </c>
+      <c r="T19" t="s">
+        <v>263</v>
+      </c>
+      <c r="U19" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
